--- a/Documents/Authorization schema.xlsx
+++ b/Documents/Authorization schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\TodoList\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF03F6B-88BC-4048-BE3C-1FF59DFD477F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8566B3-D3C3-4023-88AD-1D4A16BBE0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2F53922E-3F3B-4205-BF92-C23E57FF04F3}"/>
   </bookViews>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -335,13 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3549,7 +3552,7 @@
   <dimension ref="B1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3658,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3669,7 +3672,7 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3687,7 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3699,7 +3702,7 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
@@ -3729,7 +3732,7 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3744,6 +3747,7 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
@@ -4021,7 +4025,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F2:F6"/>
-    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F7:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
